--- a/biology/Botanique/Dioscorea_juxtlahuacensis/Dioscorea_juxtlahuacensis.xlsx
+++ b/biology/Botanique/Dioscorea_juxtlahuacensis/Dioscorea_juxtlahuacensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Dioscorea juxtlahuacensis est une espèce de plantes de la famille des Dioscoreaceae endémique d'une région de l'État de Oaxaca, dans le sud du Mexique : le district Santiago Juztlahuaca de la chaîne de montagnes Sierra Madre del Sur. Elle pousse dans des chênaies à genévrier d'altitude comprise entre 1 500 et 1 700 m[2],[3].
-Dioscorea juxtlahuacensis est une plante grimpante vivace se multipliant par des rhizomes. Elle rampe sur le sol ou s'accroche à la végétation environnante, mais ne dépasse pas 60 cm au-dessus du sol. Ses feuilles sont cordées, longues de 3 cm et larges de 4 cm. Les inflorescences mâles font jusqu'à 10 cm de long et portent de 1 à 4 fleurs vertes. Les inflorescences femelles sont plus courtes (1,5 cm de long). Les graines sont longues d'1,1 mm[2],[4].
+Dioscorea juxtlahuacensis est une espèce de plantes de la famille des Dioscoreaceae endémique d'une région de l'État de Oaxaca, dans le sud du Mexique : le district Santiago Juztlahuaca de la chaîne de montagnes Sierra Madre del Sur. Elle pousse dans des chênaies à genévrier d'altitude comprise entre 1 500 et 1 700 m,.
+Dioscorea juxtlahuacensis est une plante grimpante vivace se multipliant par des rhizomes. Elle rampe sur le sol ou s'accroche à la végétation environnante, mais ne dépasse pas 60 cm au-dessus du sol. Ses feuilles sont cordées, longues de 3 cm et larges de 4 cm. Les inflorescences mâles font jusqu'à 10 cm de long et portent de 1 à 4 fleurs vertes. Les inflorescences femelles sont plus courtes (1,5 cm de long). Les graines sont longues d'1,1 mm,.
 </t>
         </is>
       </c>
